--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="930">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,754 +55,754 @@
     <t>forced</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>providers</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>idiots</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>providers</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>idiots</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3169,10 +3169,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3230,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03071508078157144</v>
+        <v>0.03122027033228742</v>
       </c>
       <c r="C3">
         <v>126</v>
@@ -3251,7 +3251,7 @@
         <v>166</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0.01065241104442744</v>
@@ -3280,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02171884190534177</v>
+        <v>0.02207606486243762</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -3301,7 +3301,7 @@
         <v>452</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0.008847152979364066</v>
@@ -3330,7 +3330,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01094526751349763</v>
+        <v>0.011125290962465</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -3351,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="K5">
         <v>0.008513176923662739</v>
@@ -3360,19 +3360,19 @@
         <v>175</v>
       </c>
       <c r="M5">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N5">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01059770969989035</v>
+        <v>0.01077201665483471</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -3401,7 +3401,7 @@
         <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="K6">
         <v>0.007960096820674022</v>
@@ -3410,19 +3410,19 @@
         <v>153</v>
       </c>
       <c r="M6">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3430,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01023836026052381</v>
+        <v>0.01040675677742914</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3451,7 +3451,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.007749195826801144</v>
@@ -3480,28 +3480,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009478879717905482</v>
+        <v>0.009224603951507079</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>0.007749195826801144</v>
@@ -3530,28 +3530,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009075336393084461</v>
+        <v>0.009224603951507079</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1943</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0.007166110116519436</v>
@@ -3580,28 +3580,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009075336393084461</v>
+        <v>0.008795314768369063</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1943</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10">
         <v>0.006810541538930191</v>
@@ -3630,13 +3630,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008652993735625066</v>
+        <v>0.008343968221848753</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3648,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K11">
         <v>0.006687819026954708</v>
@@ -3680,28 +3680,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008208950635123223</v>
+        <v>0.008343968221848753</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>283</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2824</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>0.006499391837934001</v>
@@ -3730,28 +3730,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008208950635123223</v>
+        <v>0.007358688287479207</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2824</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13">
         <v>0.006403099228175053</v>
@@ -3780,28 +3780,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007239613968447257</v>
+        <v>0.007358688287479207</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>3049</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14">
         <v>0.006403099228175053</v>
@@ -3830,28 +3830,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007239613968447257</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3049</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>0.006239309964299796</v>
@@ -3880,7 +3880,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>0.006172577457797724</v>
@@ -3930,7 +3930,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K17">
         <v>0.006071103518748915</v>
@@ -3980,28 +3980,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>604</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18">
         <v>0.005267566610522012</v>
@@ -4030,28 +4030,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="F19">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>604</v>
+        <v>942</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>0.005228108627145893</v>
@@ -4080,28 +4080,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="F20">
-        <v>0.23</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>942</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20">
         <v>0.005228108627145893</v>
@@ -4130,28 +4130,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006702580126582596</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K21">
         <v>0.005107906154197643</v>
@@ -4180,28 +4180,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006702580126582596</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K22">
         <v>0.004815780105730203</v>
@@ -4230,7 +4230,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K23">
         <v>0.004772588380291952</v>
@@ -4280,7 +4280,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>263</v>
@@ -4330,7 +4330,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4348,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K25">
         <v>0.004595764042191631</v>
@@ -4380,7 +4380,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>264</v>
@@ -4430,7 +4430,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4448,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K27">
         <v>0.004120638948150038</v>
@@ -4480,7 +4480,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4498,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28">
         <v>0.004070077046194827</v>
@@ -4530,7 +4530,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4548,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29">
         <v>0.00401887907045148</v>
@@ -4580,28 +4580,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>1090</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K30">
         <v>0.00401887907045148</v>
@@ -4630,13 +4630,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0061185905480252</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K31">
         <v>0.003861214115503801</v>
@@ -4680,28 +4680,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0061185905480252</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1090</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K32">
         <v>0.003861214115503801</v>
@@ -4730,7 +4730,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4748,10 +4748,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K33">
         <v>0.003640387579581274</v>
@@ -4780,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>265</v>
@@ -4830,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4848,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K35">
         <v>0.003640387579581274</v>
@@ -4880,7 +4880,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>266</v>
@@ -4930,7 +4930,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K37">
         <v>0.00352479011736465</v>
@@ -4980,7 +4980,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>267</v>
@@ -5030,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5048,10 +5048,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K39">
         <v>0.003465545727937009</v>
@@ -5080,28 +5080,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>788</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K40">
         <v>0.003465545727937009</v>
@@ -5130,28 +5130,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K41">
         <v>0.003405270769465096</v>
@@ -5180,28 +5180,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>788</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K42">
         <v>0.003343909513477354</v>
@@ -5230,28 +5230,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005472633756748815</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K43">
         <v>0.003281401020185631</v>
@@ -5280,13 +5280,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005472633756748815</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>268</v>
@@ -5330,7 +5330,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5348,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K45">
         <v>0.003281401020185631</v>
@@ -5380,7 +5380,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>269</v>
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5448,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K47">
         <v>0.003152668123538727</v>
@@ -5480,7 +5480,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>270</v>
@@ -5530,7 +5530,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>271</v>
@@ -5580,7 +5580,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5598,10 +5598,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K50">
         <v>0.002877979079316075</v>
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5648,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51">
         <v>0.002877979079316075</v>
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>272</v>
@@ -5730,7 +5730,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>273</v>
@@ -5780,7 +5780,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K54">
         <v>0.002730290684685955</v>
@@ -5830,28 +5830,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>28</v>
+        <v>321</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K55">
         <v>0.002730290684685955</v>
@@ -5880,28 +5880,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>799</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K56">
         <v>0.002730290684685955</v>
@@ -5930,28 +5930,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E57">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F57">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K57">
         <v>0.002653365606891341</v>
@@ -5980,25 +5980,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F58">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>799</v>
+        <v>194</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>274</v>
@@ -6030,28 +6030,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E59">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F59">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K59">
         <v>0.002653365606891341</v>
@@ -6080,28 +6080,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="F60">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K60">
         <v>0.002492402994247871</v>
@@ -6130,25 +6130,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E61">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F61">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>275</v>
@@ -6180,28 +6180,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004739439858952741</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K62">
         <v>0.002492402994247871</v>
@@ -6230,25 +6230,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004739439858952741</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>276</v>
@@ -6280,7 +6280,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6298,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K64">
         <v>0.002407890052865101</v>
@@ -6330,7 +6330,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6348,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K65">
         <v>0.002407890052865101</v>
@@ -6380,7 +6380,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>277</v>
@@ -6430,7 +6430,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>278</v>
@@ -6480,7 +6480,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>279</v>
@@ -6530,7 +6530,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6548,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K69">
         <v>0.002407890052865101</v>
@@ -6580,7 +6580,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K70">
         <v>0.002320300913165715</v>
@@ -6630,7 +6630,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>280</v>
@@ -6680,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>281</v>
@@ -6730,7 +6730,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6780,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>283</v>
@@ -6830,7 +6830,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>284</v>
@@ -6880,7 +6880,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6898,10 +6898,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K76">
         <v>0.002320300913165715</v>
@@ -6930,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>285</v>
@@ -6980,7 +6980,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>286</v>
@@ -7030,7 +7030,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>287</v>
@@ -7080,25 +7080,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>288</v>
@@ -7130,7 +7130,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7148,10 +7148,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K81">
         <v>0.002229273008984903</v>
@@ -7180,28 +7180,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F82">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K82">
         <v>0.002229273008984903</v>
@@ -7230,28 +7230,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K83">
         <v>0.002229273008984903</v>
@@ -7280,7 +7280,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7298,10 +7298,10 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K84">
         <v>0.002229273008984903</v>
@@ -7330,25 +7330,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F85">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>289</v>
@@ -7380,25 +7380,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F86">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>290</v>
@@ -7430,25 +7430,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E87">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F87">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>291</v>
@@ -7480,28 +7480,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F88">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K88">
         <v>0.002134366409391685</v>
@@ -7530,25 +7530,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E89">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F89">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>46</v>
+        <v>533</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>292</v>
@@ -7580,28 +7580,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K90">
         <v>0.002134366409391685</v>
@@ -7630,28 +7630,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F91">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>533</v>
+        <v>22</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K91">
         <v>0.002134366409391685</v>
@@ -7680,25 +7680,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F92">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>293</v>
@@ -7730,25 +7730,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F93">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>294</v>
@@ -7780,28 +7780,28 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F94">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K94">
         <v>0.002035038523097413</v>
@@ -7830,25 +7830,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E95">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F95">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>295</v>
@@ -7880,28 +7880,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E96">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F96">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K96">
         <v>0.002035038523097413</v>
@@ -7930,25 +7930,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F97">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>296</v>
@@ -7980,25 +7980,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E98">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F98">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>297</v>
@@ -8030,25 +8030,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E99">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F99">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>298</v>
@@ -8080,28 +8080,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K100">
         <v>0.002035038523097413</v>
@@ -8130,25 +8130,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E101">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>19</v>
+        <v>799</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>299</v>
@@ -8180,25 +8180,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>300</v>
@@ -8230,25 +8230,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F103">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>799</v>
+        <v>16</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>301</v>
@@ -8280,28 +8280,28 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E104">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F104">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K104">
         <v>0.001930607057751901</v>
@@ -8330,25 +8330,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>302</v>
@@ -8380,28 +8380,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F106">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K106">
         <v>0.001930607057751901</v>
@@ -8430,7 +8430,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>303</v>
@@ -8480,28 +8480,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K108">
         <v>0.001820193789790637</v>
@@ -8530,7 +8530,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8548,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K109">
         <v>0.001820193789790637</v>
@@ -8580,7 +8580,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>304</v>
@@ -8630,7 +8630,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8648,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>305</v>
@@ -8680,13 +8680,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003869736440347498</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K112">
         <v>0.001820193789790637</v>
@@ -8730,13 +8730,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003869736440347498</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>306</v>
@@ -8780,7 +8780,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>307</v>
@@ -8830,7 +8830,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>308</v>
@@ -8880,7 +8880,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>309</v>
@@ -8930,7 +8930,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>310</v>
@@ -8980,7 +8980,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8998,10 +8998,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K118">
         <v>0.001702635384732548</v>
@@ -9030,7 +9030,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>311</v>
@@ -9080,7 +9080,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>312</v>
@@ -9130,7 +9130,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9148,10 +9148,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K121">
         <v>0.001702635384732548</v>
@@ -9180,7 +9180,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>313</v>
@@ -9230,7 +9230,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>314</v>
@@ -9280,7 +9280,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>315</v>
@@ -9330,7 +9330,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>316</v>
@@ -9380,7 +9380,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>317</v>
@@ -9430,7 +9430,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>318</v>
@@ -9480,7 +9480,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>319</v>
@@ -9530,7 +9530,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>320</v>
@@ -9580,7 +9580,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>321</v>
@@ -9630,7 +9630,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>322</v>
@@ -9680,7 +9680,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>323</v>
@@ -9730,25 +9730,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>324</v>
@@ -9780,25 +9780,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>325</v>
@@ -9830,25 +9830,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>326</v>
@@ -9880,28 +9880,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F136">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K136">
         <v>0.001576334061769364</v>
@@ -9930,25 +9930,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>327</v>
@@ -9980,25 +9980,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>5</v>
-      </c>
-      <c r="E138">
-        <v>0.8</v>
-      </c>
-      <c r="F138">
-        <v>0.2</v>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>10</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>328</v>
@@ -10030,25 +10030,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>329</v>
@@ -10080,7 +10080,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10098,10 +10098,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K140">
         <v>0.001576334061769364</v>
@@ -10130,25 +10130,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F141">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>330</v>
@@ -10180,25 +10180,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>331</v>
@@ -10230,28 +10230,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K143">
         <v>0.001576334061769364</v>
@@ -10280,25 +10280,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E144">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>332</v>
@@ -10330,25 +10330,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>333</v>
@@ -10380,25 +10380,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>334</v>
@@ -10430,25 +10430,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>335</v>
@@ -10480,7 +10480,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>336</v>
@@ -10530,28 +10530,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K149">
         <v>0.001576334061769364</v>
@@ -10580,7 +10580,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K150">
         <v>0.001576334061769364</v>
@@ -10630,25 +10630,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>337</v>
@@ -10680,28 +10680,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K152">
         <v>0.001576334061769364</v>
@@ -10730,25 +10730,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>338</v>
@@ -10780,25 +10780,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>339</v>
@@ -10830,28 +10830,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K155">
         <v>0.001576334061769364</v>
@@ -10880,25 +10880,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>340</v>
@@ -10930,25 +10930,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>341</v>
@@ -10980,22 +10980,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>38</v>
@@ -11030,25 +11030,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E159">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F159">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>343</v>
@@ -11080,28 +11080,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K160">
         <v>0.001438989539658038</v>
@@ -11130,25 +11130,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>344</v>
@@ -11180,25 +11180,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>345</v>
@@ -11230,25 +11230,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>346</v>
@@ -11280,25 +11280,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>347</v>
@@ -11330,25 +11330,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E165">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>348</v>
@@ -11380,25 +11380,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>349</v>
@@ -11430,25 +11430,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>350</v>
@@ -11480,25 +11480,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F168">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>351</v>
@@ -11530,7 +11530,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11580,25 +11580,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>353</v>
@@ -11630,25 +11630,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>354</v>
@@ -11680,25 +11680,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F172">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>355</v>
@@ -11730,25 +11730,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>356</v>
@@ -11780,25 +11780,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>357</v>
@@ -11830,7 +11830,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>358</v>
@@ -11880,25 +11880,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>359</v>
@@ -11930,25 +11930,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>360</v>
@@ -11980,28 +11980,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K178">
         <v>0.001438989539658038</v>
@@ -12030,25 +12030,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>361</v>
@@ -12080,28 +12080,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K180">
         <v>0.001438989539658038</v>
@@ -12130,25 +12130,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>322</v>
+        <v>154</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>362</v>
@@ -12180,25 +12180,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E182">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>363</v>
@@ -12230,25 +12230,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>364</v>
@@ -12280,25 +12280,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>365</v>
@@ -12330,28 +12330,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K185">
         <v>0.001438989539658038</v>
@@ -12380,25 +12380,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F186">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>366</v>
@@ -12430,25 +12430,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>367</v>
@@ -12480,25 +12480,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>368</v>
@@ -12530,25 +12530,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>369</v>
@@ -12580,28 +12580,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K190">
         <v>0.001438989539658038</v>
@@ -12630,7 +12630,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12648,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>370</v>
@@ -12680,25 +12680,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>371</v>
@@ -12730,25 +12730,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>372</v>
@@ -12780,25 +12780,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>373</v>
@@ -12830,28 +12830,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K195">
         <v>0.001287071371834601</v>
@@ -12880,25 +12880,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>374</v>
@@ -12930,28 +12930,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K197">
         <v>0.001287071371834601</v>
@@ -12980,7 +12980,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12998,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>375</v>
@@ -13030,25 +13030,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>376</v>
@@ -13080,25 +13080,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>377</v>
@@ -13130,25 +13130,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>378</v>
@@ -13180,28 +13180,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E202">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F202">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K202">
         <v>0.001287071371834601</v>
@@ -13230,25 +13230,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>379</v>
@@ -13280,28 +13280,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E204">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K204">
         <v>0.001287071371834601</v>
@@ -13330,7 +13330,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13348,10 +13348,10 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K205">
         <v>0.001287071371834601</v>
@@ -13380,25 +13380,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>380</v>
@@ -13430,25 +13430,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>381</v>
@@ -13480,25 +13480,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>382</v>
@@ -13530,25 +13530,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E209">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>383</v>
@@ -13580,25 +13580,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>384</v>
@@ -13630,25 +13630,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>385</v>
@@ -13680,25 +13680,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>386</v>
@@ -13730,25 +13730,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>387</v>
@@ -13780,25 +13780,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>388</v>
@@ -13830,28 +13830,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K215">
         <v>0.001287071371834601</v>
@@ -13880,25 +13880,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>389</v>
@@ -13930,25 +13930,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>390</v>
@@ -13980,7 +13980,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13998,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>391</v>
@@ -14030,25 +14030,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>392</v>
@@ -14080,25 +14080,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>393</v>
@@ -14130,28 +14130,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K221">
         <v>0.001287071371834601</v>
@@ -14180,25 +14180,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E222">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F222">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>394</v>
@@ -14230,25 +14230,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>395</v>
@@ -14280,25 +14280,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E224">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F224">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>396</v>
@@ -14330,25 +14330,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>397</v>
@@ -14380,25 +14380,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>398</v>
@@ -14430,25 +14430,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>533</v>
+        <v>55</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>399</v>
@@ -14480,25 +14480,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>400</v>
@@ -14530,25 +14530,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>401</v>
@@ -14580,25 +14580,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F230">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>449</v>
+        <v>135</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>402</v>
@@ -14630,25 +14630,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>403</v>
@@ -14680,25 +14680,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>404</v>
@@ -14730,25 +14730,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E233">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F233">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>405</v>
@@ -14780,7 +14780,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>406</v>
@@ -14830,25 +14830,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>407</v>
@@ -14880,19 +14880,19 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
@@ -14930,25 +14930,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>409</v>
@@ -14980,25 +14980,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>410</v>
@@ -15030,25 +15030,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>411</v>
@@ -15080,28 +15080,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K240">
         <v>0.001287071371834601</v>
@@ -15130,25 +15130,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>412</v>
@@ -15180,25 +15180,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>413</v>
@@ -15230,7 +15230,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15280,7 +15280,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15298,10 +15298,10 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K244">
         <v>0.001114636504492451</v>
@@ -15330,25 +15330,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>415</v>
@@ -15380,7 +15380,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>416</v>
@@ -15430,25 +15430,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>417</v>
@@ -15480,25 +15480,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>418</v>
@@ -15530,7 +15530,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>419</v>
@@ -15580,25 +15580,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>420</v>
@@ -15630,7 +15630,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>421</v>
@@ -15680,7 +15680,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15698,10 +15698,10 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K252">
         <v>0.001114636504492451</v>
@@ -15730,7 +15730,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>422</v>
@@ -15780,7 +15780,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>423</v>
@@ -15826,30 +15826,6 @@
       </c>
     </row>
     <row r="255" spans="1:17">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0.002736316878374407</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255" t="b">
-        <v>0</v>
-      </c>
-      <c r="H255">
-        <v>9</v>
-      </c>
       <c r="J255" s="1" t="s">
         <v>424</v>
       </c>
@@ -15876,32 +15852,8 @@
       </c>
     </row>
     <row r="256" spans="1:17">
-      <c r="A256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B256">
-        <v>0.002736316878374407</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256" t="b">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>14</v>
-      </c>
       <c r="J256" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K256">
         <v>0.001114636504492451</v>
@@ -16031,7 +15983,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K261">
         <v>0.001114636504492451</v>
@@ -16291,7 +16243,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K271">
         <v>0.001114636504492451</v>
@@ -16707,7 +16659,7 @@
     </row>
     <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K287">
         <v>0.001114636504492451</v>
@@ -16837,7 +16789,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K292">
         <v>0.001114636504492451</v>
@@ -16863,7 +16815,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K293">
         <v>0.001114636504492451</v>
@@ -17149,7 +17101,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K304">
         <v>0.001114636504492451</v>
@@ -17279,7 +17231,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K309">
         <v>0.001114636504492451</v>
@@ -17357,7 +17309,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K312">
         <v>0.001114636504492451</v>
@@ -18189,7 +18141,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K344">
         <v>0.0009100968948953184</v>
@@ -18631,7 +18583,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K361">
         <v>0.0009100968948953184</v>
@@ -18657,7 +18609,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K362">
         <v>0.0009100968948953184</v>
@@ -18787,7 +18739,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K367">
         <v>0.0009100968948953184</v>
@@ -18943,7 +18895,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K373">
         <v>0.0009100968948953184</v>
@@ -19177,7 +19129,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K382">
         <v>0.0009100968948953184</v>
@@ -19697,7 +19649,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K402">
         <v>0.0009100968948953184</v>
@@ -20009,7 +19961,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K414">
         <v>0.0009100968948953184</v>
@@ -20477,7 +20429,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K432">
         <v>0.0009100968948953184</v>
@@ -20607,7 +20559,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K437">
         <v>0.0009100968948953184</v>
@@ -20893,7 +20845,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K448">
         <v>0.0009100968948953184</v>
@@ -22557,7 +22509,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K512">
         <v>0.0006435356859173003</v>
@@ -22583,7 +22535,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K513">
         <v>0.0006435356859173003</v>
@@ -22609,7 +22561,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K514">
         <v>0.0006435356859173003</v>
@@ -22635,7 +22587,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K515">
         <v>0.0006435356859173003</v>
@@ -22765,7 +22717,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K520">
         <v>0.0006435356859173003</v>
@@ -23181,7 +23133,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K536">
         <v>0.0006435356859173003</v>
@@ -24663,7 +24615,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K593">
         <v>0.0006435356859173003</v>
@@ -25547,7 +25499,7 @@
     </row>
     <row r="627" spans="10:17">
       <c r="J627" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K627">
         <v>0.0006435356859173003</v>
@@ -25989,7 +25941,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K644">
         <v>0.0006435356859173003</v>
@@ -26041,7 +25993,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K646">
         <v>0.0006435356859173003</v>
@@ -26587,7 +26539,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K667">
         <v>0.0006435356859173003</v>
@@ -26639,7 +26591,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K669">
         <v>0.0006435356859173003</v>
@@ -27497,7 +27449,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K702">
         <v>0.0006435356859173003</v>
@@ -27601,7 +27553,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K706">
         <v>0.0006435356859173003</v>
@@ -27861,7 +27813,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K716">
         <v>0.0006435356859173003</v>
@@ -28199,7 +28151,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K729">
         <v>0.0006435356859173003</v>
@@ -29057,7 +29009,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K762">
         <v>0.0006435356859173003</v>
@@ -30019,7 +29971,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K799">
         <v>0.0006435356859173003</v>
